--- a/src/Pickles/MIL_pickles/Output/AN200/AN200_TestScript_Desktop_Analysis_System_FR_NFR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN200/AN200_TestScript_Desktop_Analysis_System_FR_NFR.xlsx
@@ -350,7 +350,7 @@
     <x:t>the grades menu is displayed</x:t>
   </x:si>
   <x:si>
-    <x:t>the grade can be set to D3 or D4</x:t>
+    <x:t>the grade can be set to D</x:t>
   </x:si>
   <x:si>
     <x:t>DenyAssignmentOfDentineGrades</x:t>
@@ -368,7 +368,7 @@
     <x:t>I left-click on a caries roi</x:t>
   </x:si>
   <x:si>
-    <x:t>the grade cannot be set to D3 or D4</x:t>
+    <x:t>the grade cannot be set to D</x:t>
   </x:si>
   <x:si>
     <x:t>ImageExport</x:t>
